--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,36 +46,39 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -85,64 +88,76 @@
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>nice</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -509,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7226027397260274</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,37 +643,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5882352941176471</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4497354497354497</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.310077519379845</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C8">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.8076923076923077</v>
@@ -878,37 +893,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1610738255033557</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>125</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -928,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07936507936507936</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,21 +985,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="B11">
+        <v>0.1543624161073825</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>126</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1022,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.765625</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7625</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1074,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1126,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1230,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1256,12 +1295,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.6666666666666666</v>
@@ -1287,16 +1326,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5823529411764706</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5690376569037657</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5319148936170213</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1360,47 +1399,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5306122448979592</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L26">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>138</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5285714285714286</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1412,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5230769230769231</v>
+        <v>0.575</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.449438202247191</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.282051282051282</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,33 +1529,137 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L31">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>37</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0.5212765957446809</v>
+      </c>
+      <c r="L32">
+        <v>49</v>
+      </c>
+      <c r="M32">
+        <v>49</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>45</v>
       </c>
-      <c r="K31">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="L31">
-        <v>20</v>
-      </c>
-      <c r="M31">
-        <v>20</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>53</v>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L33">
+        <v>44</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
